--- a/xlsx/弗吉尼亚州_intext.xlsx
+++ b/xlsx/弗吉尼亚州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="955">
   <si>
     <t>弗吉尼亚州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_弗吉尼亚州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_弗吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>維吉尼亞州州旗</t>
+    <t>维吉尼亚州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%B2%BB%E6%96%87_(%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>列治文 (維珍尼亞州)</t>
+    <t>列治文 (维珍尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維珍尼亞海灘</t>
+    <t>维珍尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%91%9E%C2%B7%E9%BA%A5%E8%80%83%E5%A4%AB</t>
   </si>
   <si>
-    <t>泰瑞·麥考夫</t>
+    <t>泰瑞·麦考夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Virginia</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E5%87%B1%E6%81%A9</t>
   </si>
   <si>
-    <t>蒂姆·凱恩</t>
+    <t>蒂姆·凯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -221,9 +221,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
   </si>
   <si>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E9%82%A6%E8%81%AF%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅邦聯國</t>
+    <t>美利坚邦联国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>藍嶺山脈</t>
+    <t>蓝岭山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B%E6%B9%BE</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E6%AF%94%E5%A5%87</t>
   </si>
   <si>
-    <t>弗吉尼亞比奇</t>
+    <t>弗吉尼亚比奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E6%B3%95%E5%85%8B%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>費爾法克斯縣</t>
+    <t>费尔法克斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E5%98%89%E5%BA%B7%E8%92%82</t>
@@ -317,25 +314,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E9%9B%B7%E5%88%A9</t>
   </si>
   <si>
-    <t>沃爾特·雷利</t>
+    <t>沃尔特·雷利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>維吉尼亞公司</t>
+    <t>维吉尼亚公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A5%B3%E7%8E%8B</t>
   </si>
   <si>
-    <t>英國女王</t>
+    <t>英国女王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%B8%80%E4%B8%96</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%8E%AE</t>
   </si>
   <si>
-    <t>詹姆斯鎮</t>
+    <t>詹姆斯镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%A1%BF%E5%A4%A7%E5%B1%A0%E6%9D%80</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E8%88%87%E7%91%AA%E9%BA%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>威廉與瑪麗學院</t>
+    <t>威廉与玛丽学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%94%BB</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B-%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國-印第安戰爭</t>
+    <t>法国-印第安战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
@@ -515,9 +512,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
   </si>
   <si>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E7%89%B9%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>桑特堡戰役</t>
+    <t>桑特堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E7%B6%AD%E7%88%BE_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>丹維爾 (維吉尼亞州)</t>
+    <t>丹维尔 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BA%A6%E7%BF%B0%C2%B7%E6%88%B4%E7%BB%B4%E6%A3%AE%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
@@ -617,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%A8%B4%E6%89%98%E7%9A%AE%E5%8D%A1%E6%95%99%E8%82%B2%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>布朗訴托皮卡教育局案</t>
+    <t>布朗诉托皮卡教育局案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%BE%B7%E6%BA%AB</t>
   </si>
   <si>
-    <t>古德溫</t>
+    <t>古德温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -671,9 +665,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡罗莱纳州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%B4%80</t>
   </si>
   <si>
-    <t>第三紀</t>
+    <t>第三纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%98%9F</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87%E5%B8%B6</t>
   </si>
   <si>
-    <t>地震帶</t>
+    <t>地震带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9C%87</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%87%E7%B4%9A</t>
   </si>
   <si>
-    <t>震級</t>
+    <t>震级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%B0%8F</t>
@@ -845,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣暖流</t>
+    <t>墨西哥湾暖流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>海洋環流</t>
+    <t>海洋环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%93%E9%A3%8E</t>
@@ -887,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>太陽輻射</t>
+    <t>太阳辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>熱島效應</t>
+    <t>热岛效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%82%BA%E8%84%8F%E5%8D%8F%E4%BC%9A</t>
@@ -911,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%B2%93</t>
   </si>
   <si>
-    <t>山貓</t>
+    <t>山猫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%BC</t>
@@ -1043,13 +1034,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E9%BC%A0</t>
   </si>
   <si>
-    <t>負鼠</t>
+    <t>负鼠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%83%A8%E6%A3%89%E5%B0%BE%E5%85%94</t>
   </si>
   <si>
-    <t>東部棉尾兔</t>
+    <t>东部棉尾兔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%A4%B4%E9%B9%B0</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E9%9B%9E</t>
   </si>
   <si>
-    <t>火雞</t>
+    <t>火鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%9A%BC</t>
@@ -1079,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%9F%B9</t>
   </si>
   <si>
-    <t>藍蟹</t>
+    <t>蓝蟹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%A4</t>
@@ -1103,13 +1094,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>北卡羅來納</t>
+    <t>北卡罗来纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%9A%9B%E7%B7%9A</t>
   </si>
   <si>
-    <t>天際線</t>
+    <t>天际线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%82%A8%E5%A4%87%E5%B1%80</t>
@@ -1145,19 +1136,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E6%96%AF%E5%A0%A1_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>彼得斯堡 (維吉尼亞州)</t>
+    <t>彼得斯堡 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>弗吉尼亞海灘</t>
+    <t>弗吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B_(%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾福克 (維珍尼亞州)</t>
+    <t>诺福克 (维珍尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1175,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%A6%8F%E5%85%8B_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩福克 (維吉尼亞州)</t>
+    <t>萨福克 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E7%A7%AF</t>
@@ -1193,13 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿靈頓縣</t>
+    <t>阿灵顿县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%98%BF%E8%AB%BE%E5%85%8B_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅阿諾克 (維吉尼亞州)</t>
+    <t>罗阿诺克 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
@@ -1217,73 +1208,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -1325,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>英格蘭人</t>
+    <t>英格兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
   </si>
   <si>
-    <t>普世聖公宗</t>
+    <t>普世圣公宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E8%80%81%E6%95%99%E4%BC%9A</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五旬節運動</t>
+    <t>五旬节运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%90%86%E4%BC%9A</t>
@@ -1601,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E8%8D%89</t>
   </si>
   <si>
-    <t>乾草</t>
+    <t>干草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -1733,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>美術館</t>
+    <t>美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -1799,13 +1790,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E6%AD%A1%E7%AF%80</t>
   </si>
   <si>
-    <t>狂歡節</t>
+    <t>狂欢节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>藍草音樂</t>
+    <t>蓝草音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E8%81%94%E9%82%A6%E5%A4%A7%E5%AD%A6</t>
@@ -1847,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
@@ -1901,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E8%BB%8D%E4%BA%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>維吉尼亞軍事學校</t>
+    <t>维吉尼亚军事学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -1943,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>內分泌學</t>
+    <t>内分泌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E5%A4%96%E4%BA%BA%E5%B7%A5%E5%8F%97%E7%B2%BE</t>
@@ -2003,13 +1994,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%8D%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>馬納薩斯</t>
+    <t>马纳萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>華盛頓地鐵</t>
+    <t>华盛顿地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AE%E6%B8%A1</t>
@@ -2105,7 +2096,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>參議員</t>
+    <t>参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
@@ -2117,9 +2108,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E5%87%AF%E6%81%A9</t>
   </si>
   <si>
-    <t>蒂姆·凯恩</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%BA%AA</t>
   </si>
   <si>
@@ -2153,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BE%8B%E7%AC%AC%E9%8E%AE</t>
   </si>
   <si>
-    <t>夏律第鎮</t>
+    <t>夏律第镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%85%8B%E6%96%AF%E5%A0%A1_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2165,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E6%B4%BE</t>
   </si>
   <si>
-    <t>黨派</t>
+    <t>党派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -2237,25 +2225,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%83%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>紐約大都會</t>
+    <t>纽约大都会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3A%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>3A等級</t>
+    <t>3A等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E6%B5%B7%E7%9B%9C</t>
   </si>
   <si>
-    <t>匹茲堡海盜</t>
+    <t>匹兹堡海盗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E6%B0%B4%E6%89%8B</t>
@@ -2273,7 +2261,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E5%8B%87%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞特蘭大勇士</t>
+    <t>亚特兰大勇士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%B2%BF%E5%B2%B8%E8%81%94%E7%9B%9F</t>
@@ -2285,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國大學體育協會</t>
+    <t>全国大学体育协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -2423,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>口號</t>
+    <t>口号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BA%E7%BB%87%E5%93%81</t>
@@ -2453,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -2489,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -2501,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -2519,7 +2507,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -2543,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -2567,7 +2555,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -2579,7 +2567,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -2591,7 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -2603,7 +2591,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -2615,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -2663,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -2681,7 +2669,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -2717,7 +2705,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2735,25 +2723,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2771,7 +2759,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2783,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2795,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2807,25 +2795,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2855,7 +2843,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2873,7 +2861,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2891,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4219,7 +4207,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>180</v>
@@ -4245,10 +4233,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>266</v>
@@ -4274,10 +4262,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -4303,10 +4291,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -4332,10 +4320,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -4361,10 +4349,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -4390,10 +4378,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -4419,10 +4407,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -4448,10 +4436,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>6</v>
@@ -4477,10 +4465,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>27</v>
@@ -4506,10 +4494,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4535,10 +4523,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>8</v>
@@ -4564,10 +4552,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>14</v>
@@ -4593,10 +4581,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -4622,10 +4610,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>12</v>
@@ -4651,10 +4639,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4680,10 +4668,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -4709,10 +4697,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4738,10 +4726,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4767,10 +4755,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
@@ -4796,10 +4784,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>13</v>
@@ -4825,10 +4813,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4854,10 +4842,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -4883,10 +4871,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -4912,10 +4900,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -4941,10 +4929,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4970,10 +4958,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4999,10 +4987,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -5028,10 +5016,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5057,10 +5045,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5086,10 +5074,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>8</v>
@@ -5115,10 +5103,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" t="s">
         <v>101</v>
-      </c>
-      <c r="F65" t="s">
-        <v>102</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5144,10 +5132,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>11</v>
@@ -5173,10 +5161,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5202,10 +5190,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5231,10 +5219,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5260,10 +5248,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>13</v>
@@ -5289,10 +5277,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5318,10 +5306,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5347,10 +5335,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5376,10 +5364,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -5405,10 +5393,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -5434,10 +5422,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -5463,10 +5451,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -5492,10 +5480,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5521,10 +5509,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -5550,10 +5538,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -5579,10 +5567,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5608,10 +5596,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5637,10 +5625,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5666,10 +5654,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="G84" t="n">
         <v>17</v>
@@ -5695,10 +5683,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -5724,10 +5712,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5753,10 +5741,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -5782,10 +5770,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5811,10 +5799,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5840,10 +5828,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5898,10 +5886,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5927,10 +5915,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>12</v>
@@ -5956,10 +5944,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5985,10 +5973,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6014,10 +6002,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6043,10 +6031,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>56</v>
@@ -6072,10 +6060,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6101,10 +6089,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6130,10 +6118,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6159,10 +6147,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>12</v>
@@ -6188,10 +6176,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -6217,10 +6205,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6246,10 +6234,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6275,10 +6263,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6304,10 +6292,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6333,10 +6321,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>8</v>
@@ -6362,10 +6350,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6391,10 +6379,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6420,10 +6408,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6449,10 +6437,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6478,10 +6466,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6507,10 +6495,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6536,10 +6524,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6565,10 +6553,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6594,10 +6582,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6623,10 +6611,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6652,10 +6640,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6681,10 +6669,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6710,10 +6698,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6739,10 +6727,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6768,10 +6756,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -6797,10 +6785,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -6826,10 +6814,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6855,10 +6843,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6884,10 +6872,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6913,10 +6901,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6942,10 +6930,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -6971,10 +6959,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -7000,10 +6988,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>9</v>
@@ -7029,10 +7017,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7058,10 +7046,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -7087,10 +7075,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7116,10 +7104,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7145,10 +7133,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G135" t="n">
         <v>6</v>
@@ -7174,10 +7162,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7203,10 +7191,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G137" t="n">
         <v>18</v>
@@ -7232,10 +7220,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7261,10 +7249,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7290,10 +7278,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7319,10 +7307,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7348,10 +7336,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>5</v>
@@ -7377,10 +7365,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7406,10 +7394,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7435,10 +7423,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7464,10 +7452,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7493,10 +7481,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7522,10 +7510,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7551,10 +7539,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7580,10 +7568,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7609,10 +7597,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7638,10 +7626,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>13</v>
@@ -7667,10 +7655,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7696,10 +7684,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -7725,10 +7713,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7754,10 +7742,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7783,10 +7771,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7812,10 +7800,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7841,10 +7829,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7870,10 +7858,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7899,10 +7887,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7928,10 +7916,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7957,10 +7945,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7986,10 +7974,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8015,10 +8003,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -8044,10 +8032,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8073,10 +8061,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8102,10 +8090,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8131,10 +8119,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8160,10 +8148,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8189,10 +8177,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8218,10 +8206,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8247,10 +8235,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8276,10 +8264,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8305,10 +8293,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8334,10 +8322,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8363,10 +8351,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8392,10 +8380,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8421,10 +8409,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8450,10 +8438,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8479,10 +8467,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8508,10 +8496,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8537,10 +8525,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8566,10 +8554,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8595,10 +8583,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8624,10 +8612,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>7</v>
@@ -8653,10 +8641,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>6</v>
@@ -8682,10 +8670,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>28</v>
@@ -8711,10 +8699,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>10</v>
@@ -8740,10 +8728,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8769,10 +8757,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8798,10 +8786,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>11</v>
@@ -8827,10 +8815,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>20</v>
@@ -8856,10 +8844,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8885,10 +8873,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8914,10 +8902,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>9</v>
@@ -8943,10 +8931,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>16</v>
@@ -8972,10 +8960,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -9001,10 +8989,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>7</v>
@@ -9030,10 +9018,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>5</v>
@@ -9059,10 +9047,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9088,10 +9076,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9117,10 +9105,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9146,10 +9134,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9175,10 +9163,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9204,10 +9192,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9233,10 +9221,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9262,10 +9250,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9291,10 +9279,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -9320,10 +9308,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9349,10 +9337,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9378,10 +9366,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -9407,10 +9395,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>11</v>
@@ -9436,10 +9424,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>69</v>
@@ -9465,10 +9453,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>10</v>
@@ -9494,10 +9482,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9523,10 +9511,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9552,10 +9540,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9581,10 +9569,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9610,10 +9598,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9639,10 +9627,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G221" t="n">
         <v>5</v>
@@ -9668,10 +9656,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9697,10 +9685,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9726,10 +9714,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -9755,10 +9743,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9784,10 +9772,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9813,10 +9801,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9842,10 +9830,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
@@ -9871,10 +9859,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9900,10 +9888,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9929,10 +9917,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9958,10 +9946,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9987,10 +9975,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G233" t="n">
         <v>11</v>
@@ -10016,10 +10004,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -10045,10 +10033,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10074,10 +10062,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10103,10 +10091,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10132,10 +10120,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10161,10 +10149,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10190,10 +10178,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10219,10 +10207,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10248,10 +10236,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10277,10 +10265,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G243" t="n">
         <v>6</v>
@@ -10306,10 +10294,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10335,10 +10323,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10364,10 +10352,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -10393,10 +10381,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10422,10 +10410,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10451,10 +10439,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10480,10 +10468,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10509,10 +10497,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10538,10 +10526,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10567,10 +10555,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10596,10 +10584,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10625,10 +10613,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10654,10 +10642,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10683,10 +10671,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10712,10 +10700,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10741,10 +10729,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10770,10 +10758,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -10799,10 +10787,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10828,10 +10816,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10857,10 +10845,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10886,10 +10874,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10915,10 +10903,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10944,10 +10932,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10973,10 +10961,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G267" t="n">
         <v>30</v>
@@ -11002,10 +10990,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11031,10 +11019,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11060,10 +11048,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11089,10 +11077,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11118,10 +11106,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11147,10 +11135,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11176,10 +11164,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11205,10 +11193,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11234,10 +11222,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11263,10 +11251,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G277" t="n">
         <v>5</v>
@@ -11292,10 +11280,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11321,10 +11309,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11350,10 +11338,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11379,10 +11367,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11408,10 +11396,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11437,10 +11425,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11466,10 +11454,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11495,10 +11483,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G285" t="n">
         <v>5</v>
@@ -11524,10 +11512,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11553,10 +11541,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11582,10 +11570,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11611,10 +11599,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G289" t="n">
         <v>4</v>
@@ -11640,10 +11628,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F290" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11669,10 +11657,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F291" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11698,10 +11686,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F292" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11727,10 +11715,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F293" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G293" t="n">
         <v>10</v>
@@ -11756,10 +11744,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F294" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11785,10 +11773,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F295" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11814,10 +11802,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F296" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11843,10 +11831,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F297" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11872,10 +11860,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F298" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11901,10 +11889,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F299" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11930,10 +11918,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F300" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11959,10 +11947,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F301" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11988,10 +11976,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F302" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -12017,10 +12005,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F303" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12046,10 +12034,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F304" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12075,10 +12063,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F305" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12104,10 +12092,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F306" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12133,10 +12121,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F307" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12162,10 +12150,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F308" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12191,10 +12179,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F309" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12220,10 +12208,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F310" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -12249,10 +12237,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F311" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12278,10 +12266,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F312" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12307,10 +12295,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F313" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G313" t="n">
         <v>9</v>
@@ -12336,10 +12324,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F314" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12365,10 +12353,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F315" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G315" t="n">
         <v>6</v>
@@ -12394,10 +12382,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F316" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12423,10 +12411,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F317" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12452,10 +12440,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F318" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12481,10 +12469,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12510,10 +12498,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12539,10 +12527,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G321" t="n">
         <v>14</v>
@@ -12568,10 +12556,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12597,10 +12585,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12626,10 +12614,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F324" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -12655,10 +12643,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12684,10 +12672,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12713,10 +12701,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12742,10 +12730,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12771,10 +12759,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12800,10 +12788,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12829,10 +12817,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G331" t="n">
         <v>6</v>
@@ -12858,10 +12846,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12887,10 +12875,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G333" t="n">
         <v>39</v>
@@ -12916,10 +12904,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12945,10 +12933,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12974,10 +12962,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13003,10 +12991,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13032,10 +13020,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G338" t="n">
         <v>4</v>
@@ -13061,10 +13049,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F339" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13090,10 +13078,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13119,10 +13107,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13148,10 +13136,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13177,10 +13165,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13206,10 +13194,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G344" t="n">
         <v>8</v>
@@ -13235,10 +13223,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13264,10 +13252,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G346" t="n">
         <v>11</v>
@@ -13293,10 +13281,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G347" t="n">
         <v>13</v>
@@ -13322,10 +13310,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G348" t="n">
         <v>6</v>
@@ -13351,10 +13339,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G349" t="n">
         <v>3</v>
@@ -13380,10 +13368,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13409,10 +13397,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13438,10 +13426,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13467,10 +13455,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13496,10 +13484,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13525,10 +13513,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13554,10 +13542,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13583,10 +13571,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G357" t="n">
         <v>7</v>
@@ -13612,10 +13600,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13641,10 +13629,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13670,10 +13658,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G360" t="n">
         <v>17</v>
@@ -13699,10 +13687,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13728,10 +13716,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13757,10 +13745,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F363" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13786,10 +13774,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F364" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13815,10 +13803,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F365" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G365" t="n">
         <v>6</v>
@@ -13844,10 +13832,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F366" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G366" t="n">
         <v>6</v>
@@ -13873,10 +13861,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13902,10 +13890,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13931,10 +13919,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13960,10 +13948,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13989,10 +13977,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14018,10 +14006,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14047,10 +14035,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14076,10 +14064,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14105,10 +14093,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14134,10 +14122,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14163,10 +14151,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -14192,10 +14180,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14221,10 +14209,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14250,10 +14238,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F380" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14279,10 +14267,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F381" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14308,10 +14296,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F382" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14337,10 +14325,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F383" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14366,10 +14354,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14395,10 +14383,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14424,10 +14412,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G386" t="n">
         <v>10</v>
@@ -14453,10 +14441,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G387" t="n">
         <v>4</v>
@@ -14482,10 +14470,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -14511,10 +14499,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F389" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>8</v>
@@ -14540,10 +14528,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F390" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14569,10 +14557,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14598,10 +14586,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F392" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>7</v>
@@ -14627,10 +14615,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F393" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14656,10 +14644,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F394" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14685,10 +14673,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F395" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14714,10 +14702,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F396" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14743,10 +14731,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F397" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14772,10 +14760,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F398" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -14801,10 +14789,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F399" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G399" t="n">
         <v>6</v>
@@ -14830,10 +14818,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F400" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14859,10 +14847,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F401" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -14888,10 +14876,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F402" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G402" t="n">
         <v>6</v>
@@ -14917,10 +14905,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F403" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G403" t="n">
         <v>7</v>
@@ -14946,10 +14934,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F404" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G404" t="n">
         <v>12</v>
@@ -14975,10 +14963,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F405" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15004,10 +14992,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F406" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15033,10 +15021,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F407" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15062,10 +15050,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F408" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15091,10 +15079,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F409" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15120,10 +15108,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F410" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15149,10 +15137,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15178,10 +15166,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F412" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15207,10 +15195,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F413" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15236,10 +15224,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F414" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G414" t="n">
         <v>10</v>
@@ -15265,10 +15253,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F415" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G415" t="n">
         <v>13</v>
@@ -15294,10 +15282,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F416" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15323,10 +15311,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F417" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15352,10 +15340,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F418" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15381,10 +15369,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F419" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G419" t="n">
         <v>5</v>
@@ -15410,10 +15398,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F420" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15439,10 +15427,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F421" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15468,10 +15456,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F422" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15497,10 +15485,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F423" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15526,10 +15514,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F424" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15555,10 +15543,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F425" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15584,10 +15572,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F426" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15613,10 +15601,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F427" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15642,10 +15630,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="F428" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15671,10 +15659,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="F429" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15700,10 +15688,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F430" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15729,10 +15717,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F431" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15758,10 +15746,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F432" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15787,10 +15775,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F433" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15816,10 +15804,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F434" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15845,10 +15833,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F435" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15874,10 +15862,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>132</v>
+      </c>
+      <c r="F436" t="s">
         <v>133</v>
-      </c>
-      <c r="F436" t="s">
-        <v>134</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -15903,10 +15891,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F437" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G437" t="n">
         <v>5</v>
@@ -15932,10 +15920,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F438" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15961,10 +15949,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F439" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -15990,10 +15978,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F440" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16019,10 +16007,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F441" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16048,10 +16036,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F442" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16077,10 +16065,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F443" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16106,10 +16094,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="F444" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16135,10 +16123,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F445" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16164,10 +16152,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F446" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16193,10 +16181,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F447" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16222,10 +16210,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F448" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16251,10 +16239,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F449" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="G449" t="n">
         <v>4</v>
@@ -16280,10 +16268,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F450" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16309,10 +16297,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="F451" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16338,10 +16326,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F452" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16367,10 +16355,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F453" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16396,10 +16384,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F454" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16425,10 +16413,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F455" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16454,10 +16442,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F456" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16483,10 +16471,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F457" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16512,10 +16500,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F458" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16541,10 +16529,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F459" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G459" t="n">
         <v>3</v>
@@ -16570,10 +16558,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="F460" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16599,10 +16587,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F461" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16628,10 +16616,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F462" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16657,10 +16645,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F463" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16686,10 +16674,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F464" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16715,10 +16703,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F465" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16744,10 +16732,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F466" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16773,10 +16761,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F467" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16802,10 +16790,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="F468" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16831,10 +16819,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F469" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16860,10 +16848,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F470" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16889,10 +16877,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F471" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16918,10 +16906,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F472" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16947,10 +16935,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="F473" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16976,10 +16964,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F474" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17005,10 +16993,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="F475" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17034,10 +17022,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F476" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17063,10 +17051,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F477" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17092,10 +17080,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F478" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17121,10 +17109,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F479" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17150,10 +17138,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F480" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17179,10 +17167,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F481" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17208,10 +17196,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="F482" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17237,10 +17225,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F483" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17266,10 +17254,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="F484" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17295,10 +17283,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F485" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17324,10 +17312,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="F486" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G486" t="n">
         <v>3</v>
@@ -17353,10 +17341,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F487" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17382,10 +17370,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F488" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17411,10 +17399,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F489" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17440,10 +17428,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="F490" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17469,10 +17457,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F491" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17498,10 +17486,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F492" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>

--- a/xlsx/弗吉尼亚州_intext.xlsx
+++ b/xlsx/弗吉尼亚州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_弗吉尼亚州</t>
+    <t>体育运动_体育运动_袋棍球_弗吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
